--- a/data/Tracking_Return_To_Office.xlsx
+++ b/data/Tracking_Return_To_Office.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Desktop/Cambridge (Course Materials)/Master Thesis/BullshitJobs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Desktop/Cambridge (Course Materials)/MThesis (New)/BullshitJobs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050FBB09-6B14-AF44-A927-DA01A46D5C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBDB443-5331-3144-B112-5AF9228B9FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="720" windowWidth="27140" windowHeight="18340" activeTab="1" xr2:uid="{B15B22EA-9C28-1346-94A6-CA792F916ACE}"/>
+    <workbookView xWindow="1660" yWindow="500" windowWidth="27140" windowHeight="17500" activeTab="1" xr2:uid="{B15B22EA-9C28-1346-94A6-CA792F916ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Home Office Duty (State)" sheetId="1" r:id="rId1"/>
@@ -1259,14 +1259,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604FF995-9330-3B43-AA41-1B6076CDC1E5}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="33.83203125" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" customWidth="1"/>
   </cols>
